--- a/Data/Qualitative analysis results/Pure human.xlsx
+++ b/Data/Qualitative analysis results/Pure human.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xingqian/Desktop/msr_replication_package/Data/Qualitative analysis results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BAEEB4-5B76-CB43-BED2-F5B0D78F7B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A4773F-12A0-4241-8E4A-110C3F006E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3260" yWindow="2260" windowWidth="28040" windowHeight="17180" xr2:uid="{B1AB028F-657B-ED48-ACEC-D0413BECC894}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="151">
   <si>
     <t>Pure Human</t>
   </si>
@@ -231,13 +231,271 @@
   </si>
   <si>
     <t>extraction</t>
+  </si>
+  <si>
+    <t>PR url</t>
+  </si>
+  <si>
+    <t>Commit Url</t>
+  </si>
+  <si>
+    <t>https://github.com/keephq/keep/pull/4207</t>
+  </si>
+  <si>
+    <t>https://github.com/keephq/keep/pull/4207/commits/ed0c6e0852bc1f1291c43841db88e614af4611ac</t>
+  </si>
+  <si>
+    <t>https://github.com/novuhq/novu/pull/7500</t>
+  </si>
+  <si>
+    <t>https://github.com/novuhq/novu/pull/7500/commits/9700f8bcba7ee2cb6eb537647dc05ca5341c797c</t>
+  </si>
+  <si>
+    <t>https://github.com/elizaOS/eliza/pull/5167</t>
+  </si>
+  <si>
+    <t>https://github.com/elizaOS/eliza/pull/5167/commits/6d6a1b3c0e873d3b6c1c6537e5ca9074a34ada68</t>
+  </si>
+  <si>
+    <t>https://github.com/elizaOS/eliza/pull/5297</t>
+  </si>
+  <si>
+    <t>https://github.com/elizaOS/eliza/pull/5297/commits/a81e25c9b69651502d8cdd82a2ffe525fb726b11</t>
+  </si>
+  <si>
+    <t>https://github.com/bruin-data/bruin/pull/493</t>
+  </si>
+  <si>
+    <t>https://github.com/bruin-data/bruin/pull/493/commits/367020439effee19dc8c53776ce8fc7b8cc79480</t>
+  </si>
+  <si>
+    <t>https://github.com/onlook-dev/onlook/pull/1757</t>
+  </si>
+  <si>
+    <t>https://github.com/onlook-dev/onlook/pull/1757/commits/bae8eb29e8e04a257219a3cca55c75013445a34c</t>
+  </si>
+  <si>
+    <t>https://github.com/onlook-dev/onlook/pull/2294</t>
+  </si>
+  <si>
+    <t>https://github.com/onlook-dev/onlook/pull/2294/commits/b8c39488f9984b7668f4bb87b744335407cc4133</t>
+  </si>
+  <si>
+    <t>https://github.com/onlook-dev/onlook/pull/1600</t>
+  </si>
+  <si>
+    <t>https://github.com/onlook-dev/onlook/pull/1600/commits/50d8aa0afcf3a0e75e6ca5d05ee6a0523f1c6a34</t>
+  </si>
+  <si>
+    <t>https://github.com/liam-hq/liam/pull/1374</t>
+  </si>
+  <si>
+    <t>https://github.com/liam-hq/liam/pull/1374/commits/5f71a7d0a9ea17531e1706ae3a66468f25c463fc</t>
+  </si>
+  <si>
+    <t>https://github.com/liam-hq/liam/pull/1918</t>
+  </si>
+  <si>
+    <t>https://github.com/liam-hq/liam/pull/1918/commits/cb6b0d39d5cf520bf7bb6fa536e7302dad1ddfe4</t>
+  </si>
+  <si>
+    <t>https://github.com/OpenHFT/Chronicle-Core/pull/798</t>
+  </si>
+  <si>
+    <t>https://github.com/OpenHFT/Chronicle-Core/pull/798/commits/984f5bcb6c11709d4a695cd67bfaac64c45c8597</t>
+  </si>
+  <si>
+    <t>https://github.com/OpenHFT/Chronicle-Core/pull/741</t>
+  </si>
+  <si>
+    <t>https://github.com/OpenHFT/Chronicle-Core/pull/741/commits/71cb7f3aaba78bb81aa9e6f9b2d5967d335780cd</t>
+  </si>
+  <si>
+    <t>https://github.com/julep-ai/julep/pull/1145</t>
+  </si>
+  <si>
+    <t>https://github.com/julep-ai/julep/pull/1145/files#diff-05b346521c23f568c9804ac59931eb4fd5a61ec88110a783debb1ed329b47470</t>
+  </si>
+  <si>
+    <t>https://github.com/julep-ai/julep/pull/1277</t>
+  </si>
+  <si>
+    <t>https://github.com/julep-ai/julep/pull/1277/commits/9dc1cc0221b92a06ffcfe7364bf9a89a01c89f7c</t>
+  </si>
+  <si>
+    <t>https://github.com/bruin-data/ingestr/pull/264</t>
+  </si>
+  <si>
+    <t>https://github.com/bruin-data/ingestr/pull/264/commits/860fdd5d18daeca538f561c42daa8ab4bfcc3a48</t>
+  </si>
+  <si>
+    <t>https://github.com/opencv/opencv/pull/26842</t>
+  </si>
+  <si>
+    <t>https://github.com/opencv/opencv/pull/26842/commits/a7c7a3f2020be60c7c123be128ab90e2c19ac8db</t>
+  </si>
+  <si>
+    <t>https://github.com/moonbitlang/core/pull/2291</t>
+  </si>
+  <si>
+    <t>https://github.com/OHIF/Viewers/pull/4657</t>
+  </si>
+  <si>
+    <t>https://github.com/OHIF/Viewers/pull/4657/commits/9a874704d63aabb3498198e2895130539a06874d</t>
+  </si>
+  <si>
+    <t>https://github.com/flyerhq/flutter_chat_ui/pull/756</t>
+  </si>
+  <si>
+    <t>https://github.com/synth-inc/onit/pull/294</t>
+  </si>
+  <si>
+    <t>https://github.com/synth-inc/onit/pull/294/commits/6570767134ab5ff4d7e1a2fd761b4fc6c731d5ce</t>
+  </si>
+  <si>
+    <t>https://github.com/azerothcore/azerothcore-wotlk/pull/21310</t>
+  </si>
+  <si>
+    <t>https://github.com/azerothcore/azerothcore-wotlk/pull/21310/commits/c28cd31e0c52b4686e03f6d50da26ba161eb0af3</t>
+  </si>
+  <si>
+    <t>https://github.com/unclecode/crawl4ai/pull/1175</t>
+  </si>
+  <si>
+    <t>https://github.com/unclecode/crawl4ai/pull/1175/commits/25d97d56e4e3bbc74fa1de9423cc5ae3457b0baf</t>
+  </si>
+  <si>
+    <t>https://github.com/dotnet/maui/pull/27232</t>
+  </si>
+  <si>
+    <t>https://github.com/dotnet/maui/pull/27232/commits/ee6116723221525b5188e9e2f7b89b7ba92e6446</t>
+  </si>
+  <si>
+    <t>https://github.com/microsoft/react-native-windows/pull/14577</t>
+  </si>
+  <si>
+    <t>https://github.com/microsoft/react-native-windows/pull/14577/commits/7a201f621334ad50199ba837c03f99d847a29ae9</t>
+  </si>
+  <si>
+    <t>https://github.com/Azure/azure-storage-azcopy/pull/2929</t>
+  </si>
+  <si>
+    <t>https://github.com/Azure/azure-storage-azcopy/pull/2929/commits/22cdd6c1ca6b0be43fbdccea01d2166159221ece</t>
+  </si>
+  <si>
+    <t>https://github.com/microsoft/vscode-jupyter/pull/16730</t>
+  </si>
+  <si>
+    <t>https://github.com/microsoft/vscode-jupyter/pull/16730/commits/2c04ce66f8c0a990c4fb2363426f19847c3b635d</t>
+  </si>
+  <si>
+    <t>https://github.com/OneKeyHQ/app-monorepo/pull/6878</t>
+  </si>
+  <si>
+    <t>https://github.com/OneKeyHQ/app-monorepo/pull/6878/commits/0c689ad5e13197b26701b042046621cb9fa9b98c</t>
+  </si>
+  <si>
+    <t>https://github.com/antiwork/shortest/pull/398</t>
+  </si>
+  <si>
+    <t>https://github.com/AmoyLab/Unla/pull/118</t>
+  </si>
+  <si>
+    <t>https://github.com/AmoyLab/Unla/pull/118/commits/cd6b9bf3312fdd40cfa0c6be1a28b19cb65e7f03</t>
+  </si>
+  <si>
+    <t>https://github.com/schemahero/schemahero/pull/1148</t>
+  </si>
+  <si>
+    <t>https://github.com/schemahero/schemahero/pull/1148/commits/743cbb599802420003fe852071ce23e7673e0b98</t>
+  </si>
+  <si>
+    <t>https://github.com/afadil/wealthfolio/pull/297</t>
+  </si>
+  <si>
+    <t>https://github.com/afadil/wealthfolio/pull/297/commits/fe6b86793b5ac275381e3a165fc2e8cfbddd3866</t>
+  </si>
+  <si>
+    <t>https://github.com/cornerstonejs/cornerstone3D/pull/1892</t>
+  </si>
+  <si>
+    <t>https://github.com/cornerstonejs/cornerstone3D/pull/1892/commits/5637a97ead738f3ac8c3c42df9421639ead0e90e</t>
+  </si>
+  <si>
+    <t>https://github.com/StockSharp/StockSharp/pull/457</t>
+  </si>
+  <si>
+    <t>https://github.com/StockSharp/StockSharp/pull/457/commits/55dbeecf28ec60b787d866cec1af29536e3223ee</t>
+  </si>
+  <si>
+    <t>https://github.com/bionic-gpt/bionic-gpt/pull/878</t>
+  </si>
+  <si>
+    <t>https://github.com/bionic-gpt/bionic-gpt/pull/878/commits/48e529117d049aeb188c0d57bf3753c8e207951e</t>
+  </si>
+  <si>
+    <t>https://github.com/mtrojnar/osslsigncode/pull/429</t>
+  </si>
+  <si>
+    <t>https://github.com/mtrojnar/osslsigncode/pull/429/commits/276769a98f9ed6e4a5c6f5eee0be299a4bd5e963</t>
+  </si>
+  <si>
+    <t>https://github.com/gridaco/grida/pull/351</t>
+  </si>
+  <si>
+    <t>https://github.com/gridaco/grida/pull/351/commits/1ca889dbc11bbab89a7fa8fe0cedb09eab30448b</t>
+  </si>
+  <si>
+    <t>https://github.com/julep-ai/julep/pull/1175</t>
+  </si>
+  <si>
+    <t>https://github.com/julep-ai/julep/pull/1146</t>
+  </si>
+  <si>
+    <t>https://github.com/rsyslog/rsyslog/pull/5686</t>
+  </si>
+  <si>
+    <t>https://github.com/rsyslog/rsyslog/pull/5686/commits/90e0971b4b73a36f349206279515e04d2a7aa549</t>
+  </si>
+  <si>
+    <t>https://github.com/effekseer/Effekseer/pull/1048</t>
+  </si>
+  <si>
+    <t>https://github.com/effekseer/Effekseer/pull/1048/commits/0528cbd235bce6c9fafb936eea4d5ecfda0f3767</t>
+  </si>
+  <si>
+    <t>https://github.com/dotnet/aspire/pull/10058</t>
+  </si>
+  <si>
+    <t>https://github.com/dotnet/aspire/pull/10058/commits/e26c0589237267ec7c35f9a0c25f498928ebde34</t>
+  </si>
+  <si>
+    <t>https://github.com/microsoft/typespec/pull/7199</t>
+  </si>
+  <si>
+    <t>https://github.com/microsoft/typespec/pull/7199/commits/f1e35a88742f894234f765f26b68ae1e177d3c08</t>
+  </si>
+  <si>
+    <t>https://github.com/near/nearcore/pull/13602</t>
+  </si>
+  <si>
+    <t>https://github.com/antiwork/gumroad/pull/475</t>
+  </si>
+  <si>
+    <t>https://github.com/antiwork/gumroad/pull/475/commits</t>
+  </si>
+  <si>
+    <t>https://github.com/goat-sdk/goat/pull/429</t>
+  </si>
+  <si>
+    <t>https://github.com/goat-sdk/goat/pull/429/commits/f381a8e3f02c91453a41c25d834cc0b95bd7aaf4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -248,6 +506,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF467886"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -270,10 +544,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -285,8 +560,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -619,18 +897,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B926ADE2-A84F-1540-804C-136F826C5CFF}">
-  <dimension ref="A1:N47"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D18" workbookViewId="0">
-      <selection activeCell="L50" sqref="L50"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="L41" sqref="L41:M47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="12" max="12" width="34.1640625" customWidth="1"/>
+    <col min="12" max="12" width="32.83203125" customWidth="1"/>
+    <col min="13" max="13" width="34.33203125" customWidth="1"/>
+    <col min="14" max="14" width="34.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -654,17 +934,23 @@
       <c r="K1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" t="s">
         <v>43</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>53</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -699,8 +985,10 @@
         <v>16</v>
       </c>
       <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2415977644</v>
       </c>
@@ -734,11 +1022,17 @@
       <c r="K3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2276190602</v>
       </c>
@@ -772,11 +1066,17 @@
       <c r="K4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2601011916</v>
       </c>
@@ -810,11 +1110,17 @@
       <c r="K5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>2621907187</v>
       </c>
@@ -848,11 +1154,17 @@
       <c r="K6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>2373501517</v>
       </c>
@@ -886,14 +1198,20 @@
       <c r="K7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>2447152262</v>
       </c>
@@ -927,11 +1245,17 @@
       <c r="K8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="L8" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>2625652637</v>
       </c>
@@ -965,11 +1289,17 @@
       <c r="K9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="L9" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="N9" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>2392368251</v>
       </c>
@@ -1003,11 +1333,17 @@
       <c r="K10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="L10" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="N10" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2463457386</v>
       </c>
@@ -1041,11 +1377,17 @@
       <c r="K11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="L11" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="N11" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>2572896050</v>
       </c>
@@ -1079,14 +1421,20 @@
       <c r="K12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="L12" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="N12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="O12" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>2547361344</v>
       </c>
@@ -1120,11 +1468,17 @@
       <c r="K13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="L13" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="N13" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>2545744360</v>
       </c>
@@ -1158,11 +1512,17 @@
       <c r="K14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="L14" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="N14" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>2325260235</v>
       </c>
@@ -1196,11 +1556,17 @@
       <c r="K15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="L15" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="N15" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>2405191622</v>
       </c>
@@ -1234,11 +1600,17 @@
       <c r="K16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="L16" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="N16" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>2615702170</v>
       </c>
@@ -1272,11 +1644,17 @@
       <c r="K17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="L17" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="N17" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>2297770994</v>
       </c>
@@ -1310,14 +1688,20 @@
       <c r="K18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="L18" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="N18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="O18" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>2598419909</v>
       </c>
@@ -1351,11 +1735,15 @@
       <c r="K19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="L19" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="M19" s="5"/>
+      <c r="N19" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>2266548773</v>
       </c>
@@ -1389,11 +1777,17 @@
       <c r="K20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="L20" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="N20" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>2502267267</v>
       </c>
@@ -1427,15 +1821,19 @@
       <c r="K21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="L21" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="M21" s="5"/>
+      <c r="N21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1" t="s">
+      <c r="O21" s="1"/>
+      <c r="P21" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>2619143095</v>
       </c>
@@ -1469,14 +1867,20 @@
       <c r="K22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="L22" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="N22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="O22" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>2311202049</v>
       </c>
@@ -1510,11 +1914,17 @@
       <c r="K23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="L23" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="N23" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>2559873105</v>
       </c>
@@ -1548,11 +1958,17 @@
       <c r="K24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="L24" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="N24" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>2287814425</v>
       </c>
@@ -1586,11 +2002,17 @@
       <c r="K25" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="L25" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="N25" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>2467978919</v>
       </c>
@@ -1624,11 +2046,17 @@
       <c r="K26" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L26" s="1" t="s">
+      <c r="L26" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="N26" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>2303745279</v>
       </c>
@@ -1662,11 +2090,17 @@
       <c r="K27" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L27" s="1" t="s">
+      <c r="L27" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="N27" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>2584827739</v>
       </c>
@@ -1700,11 +2134,17 @@
       <c r="K28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="L28" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="N28" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>2392268098</v>
       </c>
@@ -1738,15 +2178,21 @@
       <c r="K29" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="L29" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="N29" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1" t="s">
+      <c r="O29" s="1"/>
+      <c r="P29" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>2396325966</v>
       </c>
@@ -1780,11 +2226,15 @@
       <c r="K30" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L30" s="1" t="s">
+      <c r="L30" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="M30" s="5"/>
+      <c r="N30" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>2545170205</v>
       </c>
@@ -1818,11 +2268,17 @@
       <c r="K31" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L31" s="1" t="s">
+      <c r="L31" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="N31" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>2388230804</v>
       </c>
@@ -1856,14 +2312,20 @@
       <c r="K32" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L32" s="1" t="s">
+      <c r="L32" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="N32" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M32" s="1" t="s">
+      <c r="O32" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>2597285478</v>
       </c>
@@ -1897,11 +2359,17 @@
       <c r="K33" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L33" s="1" t="s">
+      <c r="L33" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="N33" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>2385053787</v>
       </c>
@@ -1935,11 +2403,17 @@
       <c r="K34" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L34" s="1" t="s">
+      <c r="L34" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="N34" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>2576909720</v>
       </c>
@@ -1973,11 +2447,17 @@
       <c r="K35" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L35" s="1" t="s">
+      <c r="L35" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="N35" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>2611815572</v>
       </c>
@@ -2011,14 +2491,20 @@
       <c r="K36" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L36" s="1" t="s">
+      <c r="L36" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="M36" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="N36" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M36" s="1" t="s">
+      <c r="O36" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>2485441229</v>
       </c>
@@ -2052,11 +2538,17 @@
       <c r="K37" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L37" s="1" t="s">
+      <c r="L37" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="M37" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="N37" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>2540272739</v>
       </c>
@@ -2090,11 +2582,17 @@
       <c r="K38" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L38" s="1" t="s">
+      <c r="L38" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="M38" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="N38" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>2344813558</v>
       </c>
@@ -2128,11 +2626,15 @@
       <c r="K39" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L39" s="1" t="s">
+      <c r="L39" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="M39" s="5"/>
+      <c r="N39" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>2326576913</v>
       </c>
@@ -2166,15 +2668,19 @@
       <c r="K40" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L40" s="1" t="s">
+      <c r="L40" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="M40" s="5"/>
+      <c r="N40" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1" t="s">
+      <c r="O40" s="1"/>
+      <c r="P40" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>2586564093</v>
       </c>
@@ -2208,11 +2714,17 @@
       <c r="K41" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L41" s="1" t="s">
+      <c r="L41" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="M41" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="N41" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>2542284571</v>
       </c>
@@ -2246,14 +2758,20 @@
       <c r="K42" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L42" s="1" t="s">
+      <c r="L42" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="M42" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="N42" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M42" s="1" t="s">
+      <c r="O42" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>2620140891</v>
       </c>
@@ -2287,11 +2805,17 @@
       <c r="K43" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L43" s="1" t="s">
+      <c r="L43" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="M43" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="N43" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>2494010887</v>
       </c>
@@ -2325,14 +2849,20 @@
       <c r="K44" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L44" s="1" t="s">
+      <c r="L44" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="M44" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="N44" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M44" s="1" t="s">
+      <c r="O44" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>2539800333</v>
       </c>
@@ -2366,11 +2896,15 @@
       <c r="K45" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L45" s="1" t="s">
+      <c r="L45" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="M45" s="5"/>
+      <c r="N45" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>2607552902</v>
       </c>
@@ -2404,14 +2938,20 @@
       <c r="K46" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L46" s="1" t="s">
+      <c r="L46" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="M46" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="N46" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="M46" s="1" t="s">
+      <c r="O46" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>2399445785</v>
       </c>
@@ -2445,13 +2985,19 @@
       <c r="K47" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L47" s="1" t="s">
+      <c r="L47" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="M47" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="N47" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M47" s="1" t="s">
+      <c r="O47" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="N47" s="1" t="s">
+      <c r="P47" s="1" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2461,6 +3007,92 @@
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="L3" r:id="rId1" xr:uid="{F65C0CE7-5E53-0842-87BE-7927224A1320}"/>
+    <hyperlink ref="M3" r:id="rId2" xr:uid="{C407851E-139A-C845-8237-C6241FA38F92}"/>
+    <hyperlink ref="L4" r:id="rId3" xr:uid="{4E91B343-04C8-E745-B623-8EE68B6E6E18}"/>
+    <hyperlink ref="M4" r:id="rId4" xr:uid="{C2128774-66AC-CE4B-8C47-9D23ACC2EBBC}"/>
+    <hyperlink ref="L5" r:id="rId5" xr:uid="{16AA8B69-0437-3440-BBBF-9462A4029869}"/>
+    <hyperlink ref="M5" r:id="rId6" xr:uid="{6A42C2BC-295C-894F-AEA0-7225237E5CEB}"/>
+    <hyperlink ref="L6" r:id="rId7" xr:uid="{789D934B-6F59-9F44-9562-A52FFAEA88C6}"/>
+    <hyperlink ref="M6" r:id="rId8" xr:uid="{30F45083-33B6-3945-8E0D-3349D1E40F88}"/>
+    <hyperlink ref="L7" r:id="rId9" xr:uid="{E57A3EB8-485F-3D45-8D2C-C5B47FD4BC83}"/>
+    <hyperlink ref="M7" r:id="rId10" xr:uid="{D86A4EEF-98F4-A84D-B9A5-4F6B8FEDC5BE}"/>
+    <hyperlink ref="L8" r:id="rId11" xr:uid="{005E1D43-A227-EA4B-B71B-CB224C2F8157}"/>
+    <hyperlink ref="M8" r:id="rId12" xr:uid="{CC7AE1D8-FEE9-344C-92BE-073B1B250AA0}"/>
+    <hyperlink ref="L9" r:id="rId13" xr:uid="{C2B7D545-ECCA-6540-A49A-2C8E58C35B04}"/>
+    <hyperlink ref="M9" r:id="rId14" xr:uid="{2819F8B2-4F6D-7F4F-8CEF-B107D8EB0B9E}"/>
+    <hyperlink ref="L10" r:id="rId15" xr:uid="{35C712F6-F863-2E41-B3A5-5F573855992F}"/>
+    <hyperlink ref="M10" r:id="rId16" xr:uid="{1C1013A5-E0A5-4948-9492-1AD7B84DBEF0}"/>
+    <hyperlink ref="L11" r:id="rId17" xr:uid="{0620BE6A-7B9A-0B44-B2F9-BCEA627EE05F}"/>
+    <hyperlink ref="M11" r:id="rId18" xr:uid="{3479C8C8-92B8-E044-9B7C-C312EC2E461E}"/>
+    <hyperlink ref="L12" r:id="rId19" xr:uid="{816EB74C-10C1-584D-B2DC-73B8445BE6D6}"/>
+    <hyperlink ref="M12" r:id="rId20" xr:uid="{8639C2BC-8809-D74E-A5BB-66D13AEBB694}"/>
+    <hyperlink ref="L13" r:id="rId21" xr:uid="{FF590B66-8E7A-F840-A554-75B1727E8858}"/>
+    <hyperlink ref="M13" r:id="rId22" xr:uid="{97092A45-4C38-E043-80C4-DF128DB44A7E}"/>
+    <hyperlink ref="L14" r:id="rId23" xr:uid="{E05993DD-BF91-1248-802A-72764FEBFF95}"/>
+    <hyperlink ref="M14" r:id="rId24" xr:uid="{B9DD2F4B-FDD5-3448-A523-5057BA8C786B}"/>
+    <hyperlink ref="L15" r:id="rId25" xr:uid="{5DE1DE46-8A74-674F-9396-6D8EB912FFE3}"/>
+    <hyperlink ref="M15" r:id="rId26" location="diff-05b346521c23f568c9804ac59931eb4fd5a61ec88110a783debb1ed329b47470" display="https://github.com/julep-ai/julep/pull/1145/files - diff-05b346521c23f568c9804ac59931eb4fd5a61ec88110a783debb1ed329b47470" xr:uid="{9472B9A3-5896-1545-B317-21E7776B0EA9}"/>
+    <hyperlink ref="L16" r:id="rId27" xr:uid="{8EDFCA64-1B74-994B-B1FA-F26857B2D154}"/>
+    <hyperlink ref="M16" r:id="rId28" xr:uid="{CD283A9E-450B-F340-A8A6-1B9E4DBDD990}"/>
+    <hyperlink ref="L17" r:id="rId29" xr:uid="{271D9891-2C10-BA4E-AB53-26E6430261C9}"/>
+    <hyperlink ref="M17" r:id="rId30" xr:uid="{B57CB151-662E-1F4C-B5D4-5C77A67DAC6C}"/>
+    <hyperlink ref="L18" r:id="rId31" xr:uid="{C5790CFA-2896-3D47-A410-D77DCE96C1E3}"/>
+    <hyperlink ref="M18" r:id="rId32" xr:uid="{330186C8-E25C-1B47-B978-F5C858E482D4}"/>
+    <hyperlink ref="L19" r:id="rId33" xr:uid="{49C1C202-6987-9648-A3A9-781C9F85BFD9}"/>
+    <hyperlink ref="L20" r:id="rId34" xr:uid="{5EF4B2C7-E6BD-B644-8B14-48C5F4AFAE22}"/>
+    <hyperlink ref="M20" r:id="rId35" xr:uid="{5784FC2C-FE7A-BD4A-9079-36520CF59C41}"/>
+    <hyperlink ref="L21" r:id="rId36" xr:uid="{E598ABEB-C4EE-3147-9467-4923C73EC70E}"/>
+    <hyperlink ref="L22" r:id="rId37" xr:uid="{64E40196-8924-7347-ABE1-E451DE275ACF}"/>
+    <hyperlink ref="M22" r:id="rId38" xr:uid="{22D33DE8-3F5C-0B45-A7D7-4991D19F0BBC}"/>
+    <hyperlink ref="L23" r:id="rId39" xr:uid="{85A5D9F9-1EA9-D541-B6D5-505EDDC5AFFC}"/>
+    <hyperlink ref="M23" r:id="rId40" xr:uid="{C49F2976-E903-104C-8D31-588F93A85C04}"/>
+    <hyperlink ref="L24" r:id="rId41" xr:uid="{A3B63A63-6D44-BB42-944A-C8D3F249D71F}"/>
+    <hyperlink ref="M24" r:id="rId42" xr:uid="{BF6B1D4D-AB11-7B4C-B3DD-AEDB4CA245F3}"/>
+    <hyperlink ref="L25" r:id="rId43" xr:uid="{769BB45C-9BDC-FA44-83AF-5AB4C0AE0A08}"/>
+    <hyperlink ref="M25" r:id="rId44" xr:uid="{EC1959CE-C0E1-D74B-97C4-11974B78AAB0}"/>
+    <hyperlink ref="L26" r:id="rId45" xr:uid="{1ED7EC27-D779-5945-883B-8EB1DECD70F6}"/>
+    <hyperlink ref="M26" r:id="rId46" xr:uid="{15B5B1B3-A91B-6C47-BE48-6F8DF2D6F412}"/>
+    <hyperlink ref="L27" r:id="rId47" xr:uid="{3BFBF2D4-3586-C245-8F82-6AD1A0BFCC16}"/>
+    <hyperlink ref="M27" r:id="rId48" xr:uid="{200B91BB-2332-F248-A23F-59269194C6E8}"/>
+    <hyperlink ref="L28" r:id="rId49" xr:uid="{8E3FA714-E1CE-354B-9EC4-D39B8D1DCB7B}"/>
+    <hyperlink ref="M28" r:id="rId50" xr:uid="{DE8DB371-35E0-1F4B-B02D-F142FDFCA703}"/>
+    <hyperlink ref="L29" r:id="rId51" xr:uid="{5235DEAE-D008-4844-80A2-8F0F1470BA43}"/>
+    <hyperlink ref="M29" r:id="rId52" xr:uid="{8E6AD7D8-8494-5A44-B827-36C068D07AC3}"/>
+    <hyperlink ref="L30" r:id="rId53" xr:uid="{E30A51BE-AE9A-CA47-8AF3-0CDACE6C7421}"/>
+    <hyperlink ref="L31" r:id="rId54" xr:uid="{64E45DEF-F327-1B41-8F87-8D8B815F66A3}"/>
+    <hyperlink ref="M31" r:id="rId55" xr:uid="{5E866528-242B-1845-AA0E-034265FF18F2}"/>
+    <hyperlink ref="L32" r:id="rId56" xr:uid="{CC0BB07E-DF38-7D4F-9763-7F8A34027A46}"/>
+    <hyperlink ref="M32" r:id="rId57" xr:uid="{2010D568-D200-1D4D-85B7-4F339949E22F}"/>
+    <hyperlink ref="L33" r:id="rId58" xr:uid="{0C4CC6F9-EDC3-7542-872A-2D708897EA13}"/>
+    <hyperlink ref="M33" r:id="rId59" xr:uid="{D3088775-DDCC-2345-B80F-3286583F798A}"/>
+    <hyperlink ref="L34" r:id="rId60" xr:uid="{E95BDEF3-CE5D-6D40-80FD-4EC753BFBCBB}"/>
+    <hyperlink ref="M34" r:id="rId61" xr:uid="{449319FE-D8A2-5641-8BAC-006FCA959BF0}"/>
+    <hyperlink ref="L35" r:id="rId62" xr:uid="{5D7190AA-6DB4-9547-B289-3AD479699C4F}"/>
+    <hyperlink ref="M35" r:id="rId63" xr:uid="{DB535619-A484-6D4C-B065-D0B367AFEF71}"/>
+    <hyperlink ref="L36" r:id="rId64" xr:uid="{8635D76E-6C2A-D44E-B34A-E87E3BEFAFD0}"/>
+    <hyperlink ref="M36" r:id="rId65" xr:uid="{DB16176D-ADED-D243-A5BE-6AF34956AD2E}"/>
+    <hyperlink ref="L37" r:id="rId66" xr:uid="{079476E7-7AE5-944B-A7C9-C386AD20E6AB}"/>
+    <hyperlink ref="M37" r:id="rId67" xr:uid="{AF2E5867-FB1D-854A-A376-F87ADBAD85EE}"/>
+    <hyperlink ref="L38" r:id="rId68" xr:uid="{40B5C786-DBEE-1C43-898F-6DC57BE3DE59}"/>
+    <hyperlink ref="M38" r:id="rId69" xr:uid="{4031C710-834D-DD42-852B-9006CFB70301}"/>
+    <hyperlink ref="L39" r:id="rId70" xr:uid="{58AFDB2B-64FF-BF40-8B45-02AE2C6C8B72}"/>
+    <hyperlink ref="L40" r:id="rId71" xr:uid="{ECF1862A-A3B7-3D4F-8C17-0AF624083B1F}"/>
+    <hyperlink ref="L41" r:id="rId72" xr:uid="{E0085143-F1DC-6748-A39C-2778450512D0}"/>
+    <hyperlink ref="M41" r:id="rId73" xr:uid="{AE4ADAB2-61E1-FD47-A19A-A20160DB5155}"/>
+    <hyperlink ref="L42" r:id="rId74" xr:uid="{37715253-D3FF-D74A-A7D5-FB9413760DBF}"/>
+    <hyperlink ref="M42" r:id="rId75" xr:uid="{0B4C759A-7BD4-DF47-B77C-849A34D89637}"/>
+    <hyperlink ref="L43" r:id="rId76" xr:uid="{6B035988-56BB-054C-8C27-2EB335755D8A}"/>
+    <hyperlink ref="M43" r:id="rId77" xr:uid="{7AD25823-28BC-5648-A2D9-D047DEABE1A3}"/>
+    <hyperlink ref="L44" r:id="rId78" xr:uid="{1E673E2E-253E-2248-83F9-D844AD2E029A}"/>
+    <hyperlink ref="M44" r:id="rId79" xr:uid="{43BEE6ED-B5EE-D64F-B5E0-BDDD60FFB405}"/>
+    <hyperlink ref="L45" r:id="rId80" xr:uid="{98016759-F466-DD47-82DB-A0186AD981DC}"/>
+    <hyperlink ref="L46" r:id="rId81" xr:uid="{E3545680-92C7-924E-A156-B464DA37FAD4}"/>
+    <hyperlink ref="M46" r:id="rId82" xr:uid="{881E5BED-D4A2-B842-9D28-0B323C094BBE}"/>
+    <hyperlink ref="L47" r:id="rId83" xr:uid="{D662D3E4-BEC7-4845-826D-06F84A9F3393}"/>
+    <hyperlink ref="M47" r:id="rId84" xr:uid="{5E843A82-BE08-ED47-8D14-2BD1FA6E4BAD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>